--- a/production_recipe_management_tool_v1.1/data/Recipes_tmp/34_gm_Fried Chicken Sprinkle Masala 3.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Recipes_tmp/34_gm_Fried Chicken Sprinkle Masala 3.xlsx
@@ -447,7 +447,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D2">
         <v>1.22</v>
@@ -461,7 +461,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>0.7</v>
@@ -475,7 +475,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -489,7 +489,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -503,7 +503,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <v>0.8</v>
@@ -517,7 +517,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>0.75</v>
@@ -531,7 +531,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D8">
         <v>2.5</v>
@@ -545,7 +545,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D9">
         <v>0.027</v>
@@ -559,7 +559,7 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D10">
         <v>0.045</v>

--- a/production_recipe_management_tool_v1.1/data/Recipes_tmp/34_gm_Fried Chicken Sprinkle Masala 3.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Recipes_tmp/34_gm_Fried Chicken Sprinkle Masala 3.xlsx
@@ -447,7 +447,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>58.82352941176471</v>
       </c>
       <c r="D2">
         <v>1.22</v>
@@ -461,7 +461,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="D3">
         <v>0.7</v>
@@ -475,7 +475,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -489,7 +489,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -503,7 +503,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="D6">
         <v>0.8</v>
@@ -517,7 +517,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="D7">
         <v>0.75</v>
@@ -531,7 +531,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>18</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="D8">
         <v>2.5</v>
@@ -545,7 +545,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>18</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="D9">
         <v>0.027</v>
@@ -559,7 +559,7 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>30</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="D10">
         <v>0.045</v>
